--- a/Quy trình quản lý khách hàng.xlsx
+++ b/Quy trình quản lý khách hàng.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCE162-5E67-4C6E-AB3E-4DD9D1E4DA23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C4500F-992F-48F8-843A-B5FEFAC240D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>NG</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Chuyển đơn hàng đến thùng rác và xóa đơn hàng cho kh</t>
+  </si>
+  <si>
+    <t>Ký  tạo hợp đồng Online.</t>
   </si>
 </sst>
 </file>
@@ -163,18 +166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,7 +173,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,6 +1258,59 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B480CE-8C8C-4CFC-9B98-65AFB25FB9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8934450" y="1485900"/>
+          <a:ext cx="800100" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1526,73 +1582,76 @@
   <dimension ref="C7:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="14" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="H14" s="10" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="H14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="K14" s="9" t="s">
+      <c r="I14" s="7"/>
+      <c r="K14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="R14" s="8" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="R14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="Y14" s="9" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="Y14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="8:28" x14ac:dyDescent="0.25">
       <c r="N17" s="2" t="s">
@@ -1600,12 +1659,12 @@
       </c>
     </row>
     <row r="18" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="25" spans="8:28" x14ac:dyDescent="0.25">
       <c r="N25" s="1" t="s">
@@ -1613,54 +1672,54 @@
       </c>
     </row>
     <row r="27" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
     </row>
     <row r="29" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="W30" s="4" t="s">
+      <c r="W30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
     </row>
     <row r="31" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
     </row>
     <row r="33" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="N33" s="5" t="s">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="N33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="R33" s="6" t="s">
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="R33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="7"/>
+      <c r="S33" s="10"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -1669,13 +1728,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="M7:N10"/>
     <mergeCell ref="P27:S27"/>
     <mergeCell ref="W30:AB31"/>
     <mergeCell ref="H29:J29"/>
@@ -1684,6 +1736,13 @@
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="R33:S33"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="M7:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
